--- a/fd2w.xlsx
+++ b/fd2w.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://goodyearcorp-my.sharepoint.com/personal/andrea_barbieri_goodyear_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D681DBDF-1CFE-4E88-B47B-EC06BE9DA24C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="72" documentId="8_{D681DBDF-1CFE-4E88-B47B-EC06BE9DA24C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52DC8099-16E4-4375-B2DC-94C703ED347D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{287A4C4F-D914-4D57-A0EE-DF1421D56C07}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{287A4C4F-D914-4D57-A0EE-DF1421D56C07}"/>
   </bookViews>
   <sheets>
     <sheet name="full" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="256">
   <si>
     <t>Forecast at LDC</t>
   </si>
@@ -572,6 +572,240 @@
   </si>
   <si>
     <t>location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.074282 </t>
+  </si>
+  <si>
+    <t>55.188539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.517232 </t>
+  </si>
+  <si>
+    <t>8.540712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.070159 </t>
+  </si>
+  <si>
+    <t>12.47364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.23675 </t>
+  </si>
+  <si>
+    <t>8.454668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.554233 </t>
+  </si>
+  <si>
+    <t>9.677045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.483708 </t>
+  </si>
+  <si>
+    <t>9.600266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.132881 </t>
+  </si>
+  <si>
+    <t>8.91698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.141277 </t>
+  </si>
+  <si>
+    <t>9.026816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.76058 </t>
+  </si>
+  <si>
+    <t>13.868154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.303824 </t>
+  </si>
+  <si>
+    <t>13.308828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.11037 </t>
+  </si>
+  <si>
+    <t>12.870848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.481823 </t>
+  </si>
+  <si>
+    <t>-3.364213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.867924 </t>
+  </si>
+  <si>
+    <t>26.704112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.868088 </t>
+  </si>
+  <si>
+    <t>2.518383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.582733 </t>
+  </si>
+  <si>
+    <t>5.002581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.894171 </t>
+  </si>
+  <si>
+    <t>2.295695</t>
+  </si>
+  <si>
+    <t>47.0239064</t>
+  </si>
+  <si>
+    <t>4.8380426</t>
+  </si>
+  <si>
+    <t>44.9332277</t>
+  </si>
+  <si>
+    <t>4.8920811</t>
+  </si>
+  <si>
+    <t>47.8665246</t>
+  </si>
+  <si>
+    <t>7.3529099</t>
+  </si>
+  <si>
+    <t>52.4552224</t>
+  </si>
+  <si>
+    <t>-1.1997815</t>
+  </si>
+  <si>
+    <t>38.047608</t>
+  </si>
+  <si>
+    <t>23.5348663</t>
+  </si>
+  <si>
+    <t>45.4558807</t>
+  </si>
+  <si>
+    <t>8.5441897</t>
+  </si>
+  <si>
+    <t>41.5942016</t>
+  </si>
+  <si>
+    <t>12.6485765</t>
+  </si>
+  <si>
+    <t>45.6843709</t>
+  </si>
+  <si>
+    <t>9.7179982</t>
+  </si>
+  <si>
+    <t>59.5597745</t>
+  </si>
+  <si>
+    <t>10.7117139</t>
+  </si>
+  <si>
+    <t>50.0259883</t>
+  </si>
+  <si>
+    <t>20.9640584</t>
+  </si>
+  <si>
+    <t>50.0619474</t>
+  </si>
+  <si>
+    <t>19.9368564</t>
+  </si>
+  <si>
+    <t>44.4748171</t>
+  </si>
+  <si>
+    <t>25.9367105</t>
+  </si>
+  <si>
+    <t>43.58264</t>
+  </si>
+  <si>
+    <t>21.3264811</t>
+  </si>
+  <si>
+    <t>44.8745083</t>
+  </si>
+  <si>
+    <t>20.0891145</t>
+  </si>
+  <si>
+    <t>57.7825634</t>
+  </si>
+  <si>
+    <t>14.165719</t>
+  </si>
+  <si>
+    <t>46.08333</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>40.713143</t>
+  </si>
+  <si>
+    <t>30.3558365</t>
+  </si>
+  <si>
+    <t>40.8580178</t>
+  </si>
+  <si>
+    <t>29.4364915</t>
+  </si>
+  <si>
+    <t>50.4500336</t>
+  </si>
+  <si>
+    <t>30.5241361</t>
+  </si>
+  <si>
+    <t>-33.7678979</t>
+  </si>
+  <si>
+    <t>25.3978174</t>
+  </si>
+  <si>
+    <t>-26.229444</t>
+  </si>
+  <si>
+    <t>28.180556</t>
+  </si>
+  <si>
+    <t>-33.91799</t>
+  </si>
+  <si>
+    <t>25.57007</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>longitude</t>
   </si>
 </sst>
 </file>
@@ -635,10 +869,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -976,7 +1212,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EA838B4-3E2C-44B8-A337-9CD15F3FD2E4}">
   <dimension ref="A1:FI25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -5300,19 +5536,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62AF8508-FD80-4936-8937-B1459F8CEB22}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="34.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="34.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>177</v>
       </c>
@@ -5331,13 +5574,19 @@
       <c r="G1" s="1" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="H1" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1" t="str">
-        <f>LEFT(A2,4)</f>
+        <f t="shared" ref="B2:B41" si="0">LEFT(A2,4)</f>
         <v>AE01</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -5352,13 +5601,27 @@
       <c r="G2" s="1" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="H2" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="K2" s="1" t="str">
+        <f>MID(H2,11,30)</f>
+        <v/>
+      </c>
+      <c r="L2" s="1" t="str">
+        <f>MID(I2,13,30)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="1" t="str">
-        <f>LEFT(A3,4)</f>
+        <f t="shared" si="0"/>
         <v>CH01</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -5373,13 +5636,27 @@
       <c r="G3" s="1" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="H3" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="K3" s="1" t="str">
+        <f t="shared" ref="K3:K18" si="1">MID(H3,11,30)</f>
+        <v/>
+      </c>
+      <c r="L3" s="1" t="str">
+        <f t="shared" ref="L3:L18" si="2">MID(I3,13,30)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="1" t="str">
-        <f>LEFT(A4,4)</f>
+        <f t="shared" si="0"/>
         <v>CZ02</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -5394,13 +5671,27 @@
       <c r="G4" s="1" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="H4" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="K4" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L4" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="1" t="str">
-        <f>LEFT(A5,4)</f>
+        <f t="shared" si="0"/>
         <v>CZ70</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -5415,13 +5706,27 @@
       <c r="G5" s="1" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="H5" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="K5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L5" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="1" t="str">
-        <f>LEFT(A6,4)</f>
+        <f t="shared" si="0"/>
         <v>DE01</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -5436,13 +5741,27 @@
       <c r="G6" s="1" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="H6" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="K6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L6" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="1" t="str">
-        <f>LEFT(A7,4)</f>
+        <f t="shared" si="0"/>
         <v>DE30</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -5457,13 +5776,27 @@
       <c r="G7" s="1" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="H7" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="K7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L7" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="1" t="str">
-        <f>LEFT(A8,4)</f>
+        <f t="shared" si="0"/>
         <v>DE31</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -5478,13 +5811,27 @@
       <c r="G8" s="1" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="H8" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="K8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L8" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="1" t="str">
-        <f>LEFT(A9,4)</f>
+        <f t="shared" si="0"/>
         <v>DE51</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -5499,13 +5846,27 @@
       <c r="G9" s="1" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="H9" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="K9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L9" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="1" t="str">
-        <f>LEFT(A10,4)</f>
+        <f t="shared" si="0"/>
         <v>DE52</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -5520,13 +5881,27 @@
       <c r="G10" s="1" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="H10" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="K10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L10" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="1" t="str">
-        <f>LEFT(A11,4)</f>
+        <f t="shared" si="0"/>
         <v>DE55</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -5541,13 +5916,27 @@
       <c r="G11" s="1" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="H11" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="K11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L11" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="1" t="str">
-        <f>LEFT(A12,4)</f>
+        <f t="shared" si="0"/>
         <v>DE56</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -5562,13 +5951,27 @@
       <c r="G12" s="1" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="H12" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="K12" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L12" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="1" t="str">
-        <f>LEFT(A13,4)</f>
+        <f t="shared" si="0"/>
         <v>DEV4</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -5583,13 +5986,27 @@
       <c r="G13" s="1" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="H13" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="K13" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L13" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="1" t="str">
-        <f>LEFT(A14,4)</f>
+        <f t="shared" si="0"/>
         <v>ES01</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -5604,13 +6021,27 @@
       <c r="G14" s="1" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="H14" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="K14" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L14" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="1" t="str">
-        <f>LEFT(A15,4)</f>
+        <f t="shared" si="0"/>
         <v>FI01</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -5625,13 +6056,27 @@
       <c r="G15" s="1" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="H15" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="K15" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L15" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="1" t="str">
-        <f>LEFT(A16,4)</f>
+        <f t="shared" si="0"/>
         <v>FR03</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -5646,13 +6091,27 @@
       <c r="G16" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="H16" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="K16" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L16" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="1" t="str">
-        <f>LEFT(A17,4)</f>
+        <f t="shared" si="0"/>
         <v>FR13</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -5667,13 +6126,27 @@
       <c r="G17" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="H17" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="K17" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L17" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="1" t="str">
-        <f>LEFT(A18,4)</f>
+        <f t="shared" si="0"/>
         <v>FR79</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -5688,13 +6161,27 @@
       <c r="G18" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="H18" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="K18" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L18" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="1" t="str">
-        <f>LEFT(A19,4)</f>
+        <f t="shared" si="0"/>
         <v>FRV1</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -5709,13 +6196,19 @@
       <c r="G19" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="H19" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="1" t="str">
-        <f>LEFT(A20,4)</f>
+        <f t="shared" si="0"/>
         <v>FRV4</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -5730,13 +6223,19 @@
       <c r="G20" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="H20" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B21" s="1" t="str">
-        <f>LEFT(A21,4)</f>
+        <f t="shared" si="0"/>
         <v>FRV5</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -5751,13 +6250,19 @@
       <c r="G21" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="H21" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="1" t="str">
-        <f>LEFT(A22,4)</f>
+        <f t="shared" si="0"/>
         <v>GB01</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -5772,13 +6277,19 @@
       <c r="G22" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="H22" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B23" s="1" t="str">
-        <f>LEFT(A23,4)</f>
+        <f t="shared" si="0"/>
         <v>GR01</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -5793,13 +6304,19 @@
       <c r="G23" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="H23" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="1" t="str">
-        <f>LEFT(A24,4)</f>
+        <f t="shared" si="0"/>
         <v>IT01</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -5814,13 +6331,19 @@
       <c r="G24" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="H24" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B25" s="1" t="str">
-        <f>LEFT(A25,4)</f>
+        <f t="shared" si="0"/>
         <v>IT03</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -5835,13 +6358,19 @@
       <c r="G25" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="H25" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B26" s="1" t="str">
-        <f>LEFT(A26,4)</f>
+        <f t="shared" si="0"/>
         <v>ITV1</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -5856,13 +6385,19 @@
       <c r="G26" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="H26" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B27" s="1" t="str">
-        <f>LEFT(A27,4)</f>
+        <f t="shared" si="0"/>
         <v>NO02</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -5877,13 +6412,19 @@
       <c r="G27" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="H27" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B28" s="1" t="str">
-        <f>LEFT(A28,4)</f>
+        <f t="shared" si="0"/>
         <v>PL01</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -5898,13 +6439,19 @@
       <c r="G28" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="H28" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B29" s="1" t="str">
-        <f>LEFT(A29,4)</f>
+        <f t="shared" si="0"/>
         <v>PLV1</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -5919,13 +6466,19 @@
       <c r="G29" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="H29" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B30" s="1" t="str">
-        <f>LEFT(A30,4)</f>
+        <f t="shared" si="0"/>
         <v>RO01</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -5940,13 +6493,19 @@
       <c r="G30" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="H30" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B31" s="1" t="str">
-        <f>LEFT(A31,4)</f>
+        <f t="shared" si="0"/>
         <v>RS01</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -5958,13 +6517,19 @@
       <c r="G31" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="H31" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B32" s="1" t="str">
-        <f>LEFT(A32,4)</f>
+        <f t="shared" si="0"/>
         <v>RS02</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -5979,13 +6544,19 @@
       <c r="G32" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="H32" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B33" s="1" t="str">
-        <f>LEFT(A33,4)</f>
+        <f t="shared" si="0"/>
         <v>SE01</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -6000,13 +6571,19 @@
       <c r="G33" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="H33" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B34" s="1" t="str">
-        <f>LEFT(A34,4)</f>
+        <f t="shared" si="0"/>
         <v>SI01</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -6021,13 +6598,19 @@
       <c r="G34" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="H34" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B35" s="1" t="str">
-        <f>LEFT(A35,4)</f>
+        <f t="shared" si="0"/>
         <v>TR01</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -6042,13 +6625,19 @@
       <c r="G35" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="H35" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B36" s="1" t="str">
-        <f>LEFT(A36,4)</f>
+        <f t="shared" si="0"/>
         <v>TR03</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -6063,13 +6652,19 @@
       <c r="G36" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="H36" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B37" s="1" t="str">
-        <f>LEFT(A37,4)</f>
+        <f t="shared" si="0"/>
         <v>UA03</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -6084,13 +6679,19 @@
       <c r="G37" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="H37" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B38" s="1" t="str">
-        <f>LEFT(A38,4)</f>
+        <f t="shared" si="0"/>
         <v>UAV1</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -6105,13 +6706,19 @@
       <c r="G38" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="H38" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B39" s="1" t="str">
-        <f>LEFT(A39,4)</f>
+        <f t="shared" si="0"/>
         <v>ZA01</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -6129,13 +6736,19 @@
       <c r="G39" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="H39" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B40" s="1" t="str">
-        <f>LEFT(A40,4)</f>
+        <f t="shared" si="0"/>
         <v>ZA03</v>
       </c>
       <c r="C40" s="1" t="s">
@@ -6153,13 +6766,19 @@
       <c r="G40" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="H40" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B41" s="1" t="str">
-        <f>LEFT(A41,4)</f>
+        <f t="shared" si="0"/>
         <v>ZA09</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -6173,6 +6792,12 @@
       </c>
       <c r="G41" s="1" t="s">
         <v>69</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>
